--- a/hurricaneInfo.xlsx
+++ b/hurricaneInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="2640" yWindow="740" windowWidth="25040" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,8 +289,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,7 +470,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -410,6 +508,55 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -447,6 +594,55 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -779,7 +975,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1268,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6">
